--- a/Class/MidtermProblems/Question2/Question2.xlsx
+++ b/Class/MidtermProblems/Question2/Question2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\attil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e98a767685f68f6f/Desktop/CS17C/KoksalAttila_CIS17C_43484/Class/MidtermProblems/Question2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC5DF93-0AA0-45C1-A022-39534139CC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{1CC5DF93-0AA0-45C1-A022-39534139CC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E103847-8A82-4896-8074-D10DB2EB5350}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bubble Sort" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,19 +115,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,13 +147,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8761,8 +8764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:Y74"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8777,53 +8780,53 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J6">
         <v>2.3610499999999999E-4</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="X6">
@@ -8845,10 +8848,10 @@
         <f>600/1000000000</f>
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>-8.0250300000000007E-6</v>
       </c>
       <c r="Q7">
@@ -8864,7 +8867,7 @@
       <c r="U7">
         <v>19135</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="X7">
@@ -8886,10 +8889,10 @@
         <f>1500/1000000000</f>
         <v>1.5E-6</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>1.9421900000000001E-8</v>
       </c>
       <c r="Q8">
@@ -8905,7 +8908,7 @@
       <c r="U8">
         <v>88845</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="W8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X8">
@@ -9058,48 +9061,48 @@
       </c>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="Q14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2" t="s">
+      <c r="T14" s="1"/>
+      <c r="U14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2" t="s">
+      <c r="V14" s="1"/>
+      <c r="W14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2" t="s">
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q15">
@@ -9160,7 +9163,7 @@
         <f t="shared" ref="E17:E18" si="6">D17^2</f>
         <v>16</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f>($J$6*C17)+($J$7*D17)+($J$8*E17)</f>
         <v>2.0431563039999999E-4</v>
       </c>
@@ -9206,7 +9209,7 @@
         <f t="shared" si="6"/>
         <v>256</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f>($J$6*C18)+($J$7*D18)+($J$8*E18)</f>
         <v>1.1267652639999998E-4</v>
       </c>
@@ -9252,7 +9255,7 @@
         <f>D19^2</f>
         <v>4096</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f>($J$6*C19)+($J$7*D19)+($J$8*E19)</f>
         <v>-1.9794481760000002E-4</v>
       </c>
@@ -9298,7 +9301,7 @@
         <f t="shared" ref="E20:E38" si="12">D20^2</f>
         <v>10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" ref="G20:G31" si="13">($J$6*C20)+($J$7*D20)+($J$8*E20)</f>
         <v>-3.7217900000000004E-4</v>
       </c>
@@ -9306,7 +9309,7 @@
         <f t="shared" si="8"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <f>I20-G20</f>
         <v>5.7217900000000003E-4</v>
       </c>
@@ -9344,7 +9347,7 @@
         <f t="shared" si="12"/>
         <v>22500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f t="shared" si="13"/>
         <v>-5.3065675000000016E-4</v>
       </c>
@@ -9390,7 +9393,7 @@
         <f t="shared" si="12"/>
         <v>40000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <f t="shared" si="13"/>
         <v>-5.9202500000000026E-4</v>
       </c>
@@ -9436,7 +9439,7 @@
         <f t="shared" si="12"/>
         <v>62500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f t="shared" si="13"/>
         <v>-5.5628375000000012E-4</v>
       </c>
@@ -9482,7 +9485,7 @@
         <f t="shared" si="12"/>
         <v>90000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <f t="shared" si="13"/>
         <v>-4.234330000000004E-4</v>
       </c>
@@ -9528,7 +9531,7 @@
         <f t="shared" si="12"/>
         <v>122500</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <f t="shared" si="13"/>
         <v>-1.9347275000000013E-4</v>
       </c>
@@ -9574,7 +9577,7 @@
         <f t="shared" si="12"/>
         <v>160000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <f t="shared" si="13"/>
         <v>1.3359699999999962E-4</v>
       </c>
@@ -9620,7 +9623,7 @@
         <f t="shared" si="12"/>
         <v>202500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <f t="shared" si="13"/>
         <v>5.5777625000000015E-4</v>
       </c>
@@ -9666,7 +9669,7 @@
         <f t="shared" si="12"/>
         <v>250000</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <f t="shared" si="13"/>
         <v>1.0790650000000001E-3</v>
       </c>
@@ -9712,7 +9715,7 @@
         <f t="shared" si="12"/>
         <v>302500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <f t="shared" si="13"/>
         <v>1.6974632500000005E-3</v>
       </c>
@@ -9758,7 +9761,7 @@
         <f t="shared" si="12"/>
         <v>360000</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <f t="shared" si="13"/>
         <v>2.4129709999999999E-3</v>
       </c>
@@ -9804,7 +9807,7 @@
         <f t="shared" si="12"/>
         <v>422500</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <f t="shared" si="13"/>
         <v>3.2255882499999996E-3</v>
       </c>
@@ -9850,7 +9853,7 @@
         <f t="shared" si="12"/>
         <v>490000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <f t="shared" ref="G32:G36" si="17">($J$6*C32)+($J$7*D32)+($J$8*E32)</f>
         <v>4.1353150000000005E-3</v>
       </c>
@@ -9896,7 +9899,7 @@
         <f t="shared" si="12"/>
         <v>562500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <f t="shared" si="17"/>
         <v>5.1421512500000009E-3</v>
       </c>
@@ -9942,7 +9945,7 @@
         <f t="shared" si="12"/>
         <v>640000</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <f t="shared" si="17"/>
         <v>6.2460969999999999E-3</v>
       </c>
@@ -9988,7 +9991,7 @@
         <f t="shared" si="12"/>
         <v>722500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <f t="shared" si="17"/>
         <v>7.447152250000001E-3</v>
       </c>
@@ -10034,7 +10037,7 @@
         <f t="shared" si="12"/>
         <v>810000</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <f t="shared" si="17"/>
         <v>8.7453170000000024E-3</v>
       </c>
@@ -10080,7 +10083,7 @@
         <f t="shared" si="12"/>
         <v>902500</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <f>($J$6*C37)+($J$7*D37)+($J$8*E37)</f>
         <v>1.0140591250000001E-2</v>
       </c>
@@ -10126,7 +10129,7 @@
         <f t="shared" si="12"/>
         <v>1000000</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <f>($J$6*C38)+($J$7*D38)+($J$8*E38)</f>
         <v>1.1632975000000002E-2</v>
       </c>
@@ -10162,7 +10165,7 @@
       </c>
     </row>
     <row r="39" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G39" s="3"/>
+      <c r="G39" s="2"/>
       <c r="Q39">
         <v>1</v>
       </c>
@@ -10187,7 +10190,7 @@
       </c>
     </row>
     <row r="40" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G40" s="3"/>
+      <c r="G40" s="2"/>
       <c r="Q40">
         <v>1</v>
       </c>
@@ -10212,7 +10215,7 @@
       </c>
     </row>
     <row r="41" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G41" s="3"/>
+      <c r="G41" s="2"/>
       <c r="Q41">
         <v>1</v>
       </c>
@@ -10237,7 +10240,7 @@
       </c>
     </row>
     <row r="42" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G42" s="3"/>
+      <c r="G42" s="2"/>
       <c r="Q42">
         <v>1</v>
       </c>
@@ -10262,7 +10265,7 @@
       </c>
     </row>
     <row r="43" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G43" s="3"/>
+      <c r="G43" s="2"/>
       <c r="Q43">
         <v>1</v>
       </c>
@@ -10287,7 +10290,7 @@
       </c>
     </row>
     <row r="44" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G44" s="3"/>
+      <c r="G44" s="2"/>
       <c r="Q44">
         <v>1</v>
       </c>
@@ -10312,7 +10315,7 @@
       </c>
     </row>
     <row r="45" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G45" s="3"/>
+      <c r="G45" s="2"/>
       <c r="Q45">
         <v>1</v>
       </c>
@@ -10337,7 +10340,7 @@
       </c>
     </row>
     <row r="46" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G46" s="3"/>
+      <c r="G46" s="2"/>
       <c r="Q46">
         <v>1</v>
       </c>
@@ -10362,7 +10365,7 @@
       </c>
     </row>
     <row r="47" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G47" s="3"/>
+      <c r="G47" s="2"/>
       <c r="Q47">
         <v>1</v>
       </c>
@@ -10387,7 +10390,7 @@
       </c>
     </row>
     <row r="48" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="G48" s="3"/>
+      <c r="G48" s="2"/>
       <c r="Q48">
         <v>1</v>
       </c>
@@ -10412,7 +10415,7 @@
       </c>
     </row>
     <row r="49" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G49" s="3"/>
+      <c r="G49" s="2"/>
       <c r="Q49">
         <v>1</v>
       </c>
@@ -10437,7 +10440,7 @@
       </c>
     </row>
     <row r="50" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G50" s="3"/>
+      <c r="G50" s="2"/>
       <c r="Q50">
         <v>1</v>
       </c>
@@ -10462,7 +10465,7 @@
       </c>
     </row>
     <row r="51" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G51" s="3"/>
+      <c r="G51" s="2"/>
       <c r="Q51">
         <v>1</v>
       </c>
@@ -10487,7 +10490,7 @@
       </c>
     </row>
     <row r="52" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G52" s="3"/>
+      <c r="G52" s="2"/>
       <c r="Q52">
         <v>1</v>
       </c>
@@ -10512,7 +10515,7 @@
       </c>
     </row>
     <row r="53" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G53" s="3"/>
+      <c r="G53" s="2"/>
       <c r="Q53">
         <v>1</v>
       </c>
@@ -10537,7 +10540,7 @@
       </c>
     </row>
     <row r="54" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G54" s="3"/>
+      <c r="G54" s="2"/>
       <c r="Q54">
         <v>1</v>
       </c>
@@ -10562,7 +10565,7 @@
       </c>
     </row>
     <row r="55" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G55" s="3"/>
+      <c r="G55" s="2"/>
       <c r="Q55">
         <v>1</v>
       </c>
@@ -10587,7 +10590,7 @@
       </c>
     </row>
     <row r="56" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G56" s="3"/>
+      <c r="G56" s="2"/>
       <c r="Q56">
         <v>1</v>
       </c>
@@ -10612,7 +10615,7 @@
       </c>
     </row>
     <row r="57" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G57" s="3"/>
+      <c r="G57" s="2"/>
       <c r="Q57">
         <v>1</v>
       </c>
@@ -10637,7 +10640,7 @@
       </c>
     </row>
     <row r="58" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G58" s="3"/>
+      <c r="G58" s="2"/>
       <c r="Q58">
         <v>1</v>
       </c>
@@ -10662,7 +10665,7 @@
       </c>
     </row>
     <row r="59" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G59" s="3"/>
+      <c r="G59" s="2"/>
       <c r="Q59">
         <v>1</v>
       </c>
@@ -10687,7 +10690,7 @@
       </c>
     </row>
     <row r="60" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G60" s="3"/>
+      <c r="G60" s="2"/>
       <c r="Q60">
         <v>1</v>
       </c>
@@ -10712,7 +10715,7 @@
       </c>
     </row>
     <row r="61" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G61" s="3"/>
+      <c r="G61" s="2"/>
       <c r="Q61">
         <v>1</v>
       </c>
@@ -10737,7 +10740,7 @@
       </c>
     </row>
     <row r="62" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G62" s="3"/>
+      <c r="G62" s="2"/>
       <c r="Q62">
         <v>1</v>
       </c>
@@ -10762,7 +10765,7 @@
       </c>
     </row>
     <row r="63" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G63" s="3"/>
+      <c r="G63" s="2"/>
       <c r="Q63">
         <v>1</v>
       </c>
@@ -10787,7 +10790,7 @@
       </c>
     </row>
     <row r="64" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G64" s="3"/>
+      <c r="G64" s="2"/>
       <c r="Q64">
         <v>1</v>
       </c>
@@ -10812,7 +10815,7 @@
       </c>
     </row>
     <row r="65" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G65" s="3"/>
+      <c r="G65" s="2"/>
       <c r="Q65">
         <v>1</v>
       </c>
@@ -10837,7 +10840,7 @@
       </c>
     </row>
     <row r="66" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G66" s="3"/>
+      <c r="G66" s="2"/>
       <c r="Q66">
         <v>1</v>
       </c>
@@ -10862,7 +10865,7 @@
       </c>
     </row>
     <row r="67" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G67" s="3"/>
+      <c r="G67" s="2"/>
       <c r="Q67">
         <v>1</v>
       </c>
@@ -10887,25 +10890,25 @@
       </c>
     </row>
     <row r="68" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G68" s="3"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G69" s="3"/>
+      <c r="G69" s="2"/>
     </row>
     <row r="70" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G70" s="3"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G71" s="3"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G72" s="3"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G73" s="3"/>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="7:25" x14ac:dyDescent="0.3">
-      <c r="G74" s="3"/>
+      <c r="G74" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10918,8 +10921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10934,53 +10937,53 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>2.41882E-5</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4" t="s">
+      <c r="T6" s="3"/>
+      <c r="U6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="X6">
@@ -11002,10 +11005,10 @@
         <f>5200/1000000000</f>
         <v>5.2000000000000002E-6</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>-1.4105300000000001E-7</v>
       </c>
       <c r="Q7">
@@ -11021,7 +11024,7 @@
       <c r="U7">
         <v>5889</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="X7">
@@ -11043,10 +11046,10 @@
         <f>16/1000000</f>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>1.50919E-9</v>
       </c>
       <c r="Q8">
@@ -11062,7 +11065,7 @@
       <c r="U8">
         <v>22000</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="W8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X8">
@@ -11201,25 +11204,25 @@
       </c>
     </row>
     <row r="16" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="Q16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="4" t="s">
+      <c r="Q16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4" t="s">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5" t="s">
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5" t="s">
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -11248,25 +11251,25 @@
       </c>
     </row>
     <row r="18" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Q18">
@@ -11303,7 +11306,7 @@
         <f>D19^2</f>
         <v>625</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f>$J$6*C19+$J$7*D19+$J$8*E19</f>
         <v>2.1605118749999997E-5</v>
       </c>
